--- a/Fallout_Character_Manager/spreadsheets/all_tables.xlsx
+++ b/Fallout_Character_Manager/spreadsheets/all_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vlado downloads\Others\D&amp;D\Fallout_Bulgaria\Fallout_Character_Manager\Fallout_Character_Manager\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27990B30-259C-4580-9A34-5668DC369F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1C431E-5E54-4A77-AD66-D36077C8AE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="846" firstSheet="15" activeTab="22" xr2:uid="{B429A0AC-8E23-4641-AEE9-0A6E04A084AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="846" firstSheet="6" activeTab="11" xr2:uid="{B429A0AC-8E23-4641-AEE9-0A6E04A084AF}"/>
   </bookViews>
   <sheets>
     <sheet name="leveling" sheetId="7" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="1490">
   <si>
     <t>Level</t>
   </si>
@@ -556,9 +556,6 @@
     <t>4 AP</t>
   </si>
   <si>
-    <t>Breakable, Reach, Thrown: x6/x10. Weighted.</t>
-  </si>
-  <si>
     <t>Combat Knife</t>
   </si>
   <si>
@@ -631,9 +628,6 @@
     <t>2d10 slashing</t>
   </si>
   <si>
-    <t>Two Handed, Weighted, Sturdy.</t>
-  </si>
-  <si>
     <t>Hatchet</t>
   </si>
   <si>
@@ -817,9 +811,6 @@
     <t>Thrown, x4/x8.  If thrown, damage die increases to 1d6.</t>
   </si>
   <si>
-    <t>Defensive. Sturdy.  If you have two, you can ski.</t>
-  </si>
-  <si>
     <t>Police Baton</t>
   </si>
   <si>
@@ -983,9 +974,6 @@
   </si>
   <si>
     <t>20, +2.</t>
-  </si>
-  <si>
-    <t>If the target admits they are a communist, the weapon always critically hits..</t>
   </si>
   <si>
     <t>Paddle Ball</t>
@@ -2029,9 +2017,6 @@
     <t>x6/x18</t>
   </si>
   <si>
-    <t>.357,  6 rounds.</t>
-  </si>
-  <si>
     <t>Accurate. Manual Reload. </t>
   </si>
   <si>
@@ -2044,9 +2029,6 @@
     <t>x6/x14</t>
   </si>
   <si>
-    <t>.44,  6 rounds.</t>
-  </si>
-  <si>
     <t>Accurate. Manual Reload.</t>
   </si>
   <si>
@@ -2251,12 +2233,6 @@
     <t>5mm,  24 rounds.</t>
   </si>
   <si>
-    <t>Automatic: 3 (Switch). Two Handed.</t>
-  </si>
-  <si>
-    <t>Single: Accurate Automatic: Unstable</t>
-  </si>
-  <si>
     <t>Load: 14,  STR req: 5</t>
   </si>
   <si>
@@ -2450,9 +2426,6 @@
   </si>
   <si>
     <t>20, applies burning.</t>
-  </si>
-  <si>
-    <t>Sunlight.</t>
   </si>
   <si>
     <t>Energy Weapon. Semi-Automatic. </t>
@@ -4606,6 +4579,27 @@
   </si>
   <si>
     <t>1500c</t>
+  </si>
+  <si>
+    <t>Breakable. Reach. Thrown: x6/x10. Weighted.</t>
+  </si>
+  <si>
+    <t>Defensive. Sturdy. If you have two, you can ski.</t>
+  </si>
+  <si>
+    <t>If the target admits they are a communist, the weapon always critically hits.</t>
+  </si>
+  <si>
+    <t>.357, 6 rounds.</t>
+  </si>
+  <si>
+    <t>.44, 6 rounds.</t>
+  </si>
+  <si>
+    <t>Automatic: 3 (Switch). Two Handed. Single: Accurate. Automatic: Unstable.</t>
+  </si>
+  <si>
+    <t>Sunlight, 999 rounds.</t>
   </si>
 </sst>
 </file>
@@ -4795,7 +4789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4862,6 +4856,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4879,12 +4876,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5213,19 +5204,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="C1" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="D1" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="E1" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="F1" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5233,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -5253,7 +5244,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -5273,7 +5264,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -5293,7 +5284,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
@@ -5313,7 +5304,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
@@ -5333,7 +5324,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -5353,7 +5344,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C8" s="5">
         <v>6</v>
@@ -5373,7 +5364,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C9" s="5">
         <v>7</v>
@@ -5393,7 +5384,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C10" s="5">
         <v>7</v>
@@ -5413,7 +5404,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C11" s="5">
         <v>8</v>
@@ -5433,7 +5424,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C12" s="5">
         <v>9</v>
@@ -5453,7 +5444,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13" s="5">
         <v>10</v>
@@ -5473,7 +5464,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C14" s="5">
         <v>10</v>
@@ -5493,7 +5484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C15" s="5">
         <v>11</v>
@@ -5513,7 +5504,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C16" s="5">
         <v>12</v>
@@ -5533,7 +5524,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C17" s="5">
         <v>13</v>
@@ -5553,7 +5544,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C18" s="5">
         <v>13</v>
@@ -5573,7 +5564,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C19" s="5">
         <v>14</v>
@@ -5593,7 +5584,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C20" s="5">
         <v>14</v>
@@ -5613,7 +5604,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C21" s="5">
         <v>15</v>
@@ -5633,7 +5624,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C22" s="5">
         <v>16</v>
@@ -5653,7 +5644,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C23" s="5">
         <v>17</v>
@@ -5673,7 +5664,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C24" s="5">
         <v>18</v>
@@ -5693,7 +5684,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C25" s="5">
         <v>19</v>
@@ -5713,7 +5704,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C26" s="5">
         <v>20</v>
@@ -5733,7 +5724,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C27" s="5">
         <v>21</v>
@@ -5753,7 +5744,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C28" s="5">
         <v>22</v>
@@ -5773,7 +5764,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C29" s="5">
         <v>23</v>
@@ -5793,7 +5784,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C30" s="5">
         <v>24</v>
@@ -5813,7 +5804,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C31" s="5">
         <v>25</v>
@@ -5845,131 +5836,131 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="171.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="126" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="308.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="148.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="205.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="103.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="183" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C12" s="5">
         <v>0.35699999999999998</v>
@@ -5977,112 +5968,112 @@
     </row>
     <row r="13" spans="1:3" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="240" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="205.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="205.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="126" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="205.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -6102,202 +6093,202 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -6305,31 +6296,31 @@
         <v>52</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -6339,10 +6330,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E6738-31A4-4FA0-A9DB-E06CE0CFF90E}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6352,7 +6343,7 @@
         <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>142</v>
@@ -6361,314 +6352,314 @@
         <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>144</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>145</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>603</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>981</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>618</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>150</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>640</v>
+        <v>1486</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>645</v>
+        <v>1487</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>41</v>
@@ -6677,1179 +6668,1156 @@
         <v>159</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>696</v>
-      </c>
       <c r="I22" s="5" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>699</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="E27" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="H27" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="G26" s="5" t="s">
+    </row>
+    <row r="28" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="B28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="E28" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="29" t="s">
+      <c r="F28" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="G28" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>681</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>713</v>
-      </c>
-      <c r="H27" s="2" t="s">
+      <c r="I28" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="I27" s="29" t="s">
+    </row>
+    <row r="29" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>721</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="H30" s="5" t="s">
+    </row>
+    <row r="31" spans="1:9" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="B31" s="7" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="I31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="G32" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="E32" s="5" t="s">
+    </row>
+    <row r="33" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="B33" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="E33" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="I33" s="5" t="s">
         <v>743</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="H34" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="B35" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="F35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="I35" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="F35" s="5" t="s">
+    </row>
+    <row r="36" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="B36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>755</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>757</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="H36" s="5" t="s">
+    </row>
+    <row r="37" spans="1:9" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="B37" s="7" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="F37" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="I37" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="H38" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G38" s="5" t="s">
+    </row>
+    <row r="39" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="B39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="E39" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="G39" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>774</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>781</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="F41" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="G41" s="5" t="s">
+    </row>
+    <row r="42" spans="1:9" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="B42" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="E42" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="G42" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="I43" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="B44" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="H43" s="5" t="s">
+      <c r="E44" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="I44" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" s="5" t="s">
+    </row>
+    <row r="45" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="B45" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>808</v>
-      </c>
       <c r="E45" s="5" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>154</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="E46" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="H46" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="B47" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G46" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+      <c r="H47" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="F47" s="5" t="s">
+    </row>
+    <row r="48" spans="1:9" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="B48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="E48" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="H48" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="D49" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:9" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="69" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>832</v>
-      </c>
       <c r="B50" s="7" t="s">
-        <v>1473</v>
+        <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>648</v>
+        <v>829</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>621</v>
+        <v>777</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>833</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="F51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="H51" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>849</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7869,255 +7837,255 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -8137,114 +8105,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -8276,224 +8244,224 @@
         <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>941</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -8525,224 +8493,224 @@
         <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E4" s="5">
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="E5" s="5">
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="E6" s="5">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="E7" s="5">
         <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="E8" s="5">
         <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="E9" s="5">
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -8768,24 +8736,24 @@
         <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
@@ -8793,10 +8761,10 @@
     </row>
     <row r="3" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -8807,13 +8775,13 @@
     </row>
     <row r="4" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1</v>
@@ -8821,10 +8789,10 @@
     </row>
     <row r="5" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
@@ -8835,13 +8803,13 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="D6" s="5">
         <v>30</v>
@@ -8849,13 +8817,13 @@
     </row>
     <row r="7" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -8863,13 +8831,13 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -8877,10 +8845,10 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -8891,13 +8859,13 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
@@ -8905,10 +8873,10 @@
     </row>
     <row r="11" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>48</v>
@@ -8919,10 +8887,10 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>9</v>
@@ -8933,10 +8901,10 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
@@ -8947,13 +8915,13 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D14" s="5">
         <v>5</v>
@@ -8961,10 +8929,10 @@
     </row>
     <row r="15" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>18</v>
@@ -8975,13 +8943,13 @@
     </row>
     <row r="16" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
@@ -8989,10 +8957,10 @@
     </row>
     <row r="17" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>9</v>
@@ -9003,10 +8971,10 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
@@ -9017,10 +8985,10 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>9</v>
@@ -9031,13 +8999,13 @@
     </row>
     <row r="20" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="D20" s="5">
         <v>10</v>
@@ -9045,10 +9013,10 @@
     </row>
     <row r="21" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>48</v>
@@ -9059,13 +9027,13 @@
     </row>
     <row r="22" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D22" s="5">
         <v>8</v>
@@ -9073,13 +9041,13 @@
     </row>
     <row r="23" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="D23" s="5">
         <v>10</v>
@@ -9087,13 +9055,13 @@
     </row>
     <row r="24" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
@@ -9101,13 +9069,13 @@
     </row>
     <row r="25" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -9115,13 +9083,13 @@
     </row>
     <row r="26" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="D26" s="5">
         <v>10</v>
@@ -9136,7 +9104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7041EB81-B52F-42E8-8960-A071C85A31F3}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -9144,178 +9112,178 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
@@ -9341,21 +9309,21 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -9363,13 +9331,13 @@
     </row>
     <row r="3" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
@@ -9377,13 +9345,13 @@
     </row>
     <row r="4" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -9391,13 +9359,13 @@
     </row>
     <row r="5" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -9405,13 +9373,13 @@
     </row>
     <row r="6" spans="1:4" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -9419,13 +9387,13 @@
     </row>
     <row r="7" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
@@ -9433,13 +9401,13 @@
     </row>
     <row r="8" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -9447,13 +9415,13 @@
     </row>
     <row r="9" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -9461,13 +9429,13 @@
     </row>
     <row r="10" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -9475,13 +9443,13 @@
     </row>
     <row r="11" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -9489,13 +9457,13 @@
     </row>
     <row r="12" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -9503,13 +9471,13 @@
     </row>
     <row r="13" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -9517,13 +9485,13 @@
     </row>
     <row r="14" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -9531,13 +9499,13 @@
     </row>
     <row r="15" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="D15" s="7">
         <v>2</v>
@@ -9545,13 +9513,13 @@
     </row>
     <row r="16" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
@@ -9559,13 +9527,13 @@
     </row>
     <row r="17" spans="1:4" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="D17" s="7">
         <v>2</v>
@@ -9573,13 +9541,13 @@
     </row>
     <row r="18" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="D18" s="7">
         <v>3</v>
@@ -9587,13 +9555,13 @@
     </row>
     <row r="19" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
@@ -9601,13 +9569,13 @@
     </row>
     <row r="20" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -9615,13 +9583,13 @@
     </row>
     <row r="21" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="D21" s="7">
         <v>2</v>
@@ -9629,13 +9597,13 @@
     </row>
     <row r="22" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="D22" s="7">
         <v>1</v>
@@ -9643,13 +9611,13 @@
     </row>
     <row r="23" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="D23" s="7">
         <v>2</v>
@@ -9657,13 +9625,13 @@
     </row>
     <row r="24" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
@@ -9671,13 +9639,13 @@
     </row>
     <row r="25" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -9685,13 +9653,13 @@
     </row>
     <row r="26" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
@@ -9699,13 +9667,13 @@
     </row>
     <row r="27" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="D27" s="7">
         <v>1</v>
@@ -9713,13 +9681,13 @@
     </row>
     <row r="28" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="D28" s="7">
         <v>2</v>
@@ -9727,13 +9695,13 @@
     </row>
     <row r="29" spans="1:4" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="D29" s="7">
         <v>2</v>
@@ -9741,13 +9709,13 @@
     </row>
     <row r="30" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="D30" s="7">
         <v>2</v>
@@ -9755,13 +9723,13 @@
     </row>
     <row r="31" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
@@ -9769,13 +9737,13 @@
     </row>
     <row r="32" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="D32" s="7">
         <v>1</v>
@@ -9783,13 +9751,13 @@
     </row>
     <row r="33" spans="1:4" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="D33" s="7">
         <v>1</v>
@@ -9797,13 +9765,13 @@
     </row>
     <row r="34" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="D34" s="7">
         <v>1</v>
@@ -9811,13 +9779,13 @@
     </row>
     <row r="35" spans="1:4" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="D35" s="7">
         <v>2</v>
@@ -9825,13 +9793,13 @@
     </row>
     <row r="36" spans="1:4" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="D36" s="7">
         <v>2</v>
@@ -9839,13 +9807,13 @@
     </row>
     <row r="37" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -9853,13 +9821,13 @@
     </row>
     <row r="38" spans="1:4" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="D38" s="7">
         <v>1</v>
@@ -9867,13 +9835,13 @@
     </row>
     <row r="39" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="D39" s="7">
         <v>1</v>
@@ -9881,13 +9849,13 @@
     </row>
     <row r="40" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
@@ -9895,13 +9863,13 @@
     </row>
     <row r="41" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="D41" s="7">
         <v>1</v>
@@ -9909,13 +9877,13 @@
     </row>
     <row r="42" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="D42" s="7">
         <v>1</v>
@@ -9923,13 +9891,13 @@
     </row>
     <row r="43" spans="1:4" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="D43" s="7">
         <v>1</v>
@@ -9937,13 +9905,13 @@
     </row>
     <row r="44" spans="1:4" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
@@ -9951,13 +9919,13 @@
     </row>
     <row r="45" spans="1:4" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
@@ -9965,13 +9933,13 @@
     </row>
     <row r="46" spans="1:4" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="D46" s="7">
         <v>1</v>
@@ -9979,13 +9947,13 @@
     </row>
     <row r="47" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="D47" s="7">
         <v>1</v>
@@ -9993,13 +9961,13 @@
     </row>
     <row r="48" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="D48" s="7">
         <v>1</v>
@@ -10007,13 +9975,13 @@
     </row>
     <row r="49" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="D49" s="7">
         <v>1</v>
@@ -10021,13 +9989,13 @@
     </row>
     <row r="50" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
@@ -10035,13 +10003,13 @@
     </row>
     <row r="51" spans="1:4" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
@@ -10049,13 +10017,13 @@
     </row>
     <row r="52" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -10063,13 +10031,13 @@
     </row>
     <row r="53" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="D53" s="7">
         <v>1</v>
@@ -10077,13 +10045,13 @@
     </row>
     <row r="54" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="D54" s="7">
         <v>1</v>
@@ -10264,24 +10232,24 @@
         <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -10289,13 +10257,13 @@
     </row>
     <row r="3" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
@@ -10303,13 +10271,13 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -10317,13 +10285,13 @@
     </row>
     <row r="5" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="D5" s="5">
         <v>8</v>
@@ -10331,13 +10299,13 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -10345,13 +10313,13 @@
     </row>
     <row r="7" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D7" s="5">
         <v>4</v>
@@ -10359,13 +10327,13 @@
     </row>
     <row r="8" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
@@ -10373,13 +10341,13 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -10387,13 +10355,13 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -10401,13 +10369,13 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
@@ -10415,13 +10383,13 @@
     </row>
     <row r="12" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
@@ -10429,13 +10397,13 @@
     </row>
     <row r="13" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="D13" s="5">
         <v>2</v>
@@ -10443,10 +10411,10 @@
     </row>
     <row r="14" spans="1:4" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>41</v>
@@ -10481,21 +10449,21 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -10503,13 +10471,13 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -10517,13 +10485,13 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -10531,13 +10499,13 @@
     </row>
     <row r="5" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -10545,13 +10513,13 @@
     </row>
     <row r="6" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -10559,13 +10527,13 @@
     </row>
     <row r="7" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -10573,13 +10541,13 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -10587,13 +10555,13 @@
     </row>
     <row r="9" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -10601,13 +10569,13 @@
     </row>
     <row r="10" spans="1:4" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -10615,13 +10583,13 @@
     </row>
     <row r="11" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -10629,13 +10597,13 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -10643,13 +10611,13 @@
     </row>
     <row r="13" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
@@ -10657,13 +10625,13 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -10671,13 +10639,13 @@
     </row>
     <row r="15" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -10685,13 +10653,13 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -10699,13 +10667,13 @@
     </row>
     <row r="17" spans="1:4" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
@@ -10713,13 +10681,13 @@
     </row>
     <row r="18" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -10727,13 +10695,13 @@
     </row>
     <row r="19" spans="1:4" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -10741,13 +10709,13 @@
     </row>
     <row r="20" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -10755,13 +10723,13 @@
     </row>
     <row r="21" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -10769,13 +10737,13 @@
     </row>
     <row r="22" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -10783,13 +10751,13 @@
     </row>
     <row r="23" spans="1:4" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -10797,13 +10765,13 @@
     </row>
     <row r="24" spans="1:4" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
@@ -10811,142 +10779,142 @@
     </row>
     <row r="25" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="48.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -10966,33 +10934,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="E2" s="23">
         <v>0</v>
@@ -11000,118 +10968,118 @@
     </row>
     <row r="3" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="E9" s="23">
         <v>0.9</v>
@@ -11119,16 +11087,16 @@
     </row>
     <row r="10" spans="1:5" ht="93" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="E10" s="23">
         <v>1</v>
@@ -11143,7 +11111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF84AA8-BF85-4DBD-896B-530ABC3CCF21}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -11154,76 +11122,76 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C1" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="211.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="225" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
@@ -11250,10 +11218,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11261,10 +11229,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11272,10 +11240,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11283,10 +11251,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11294,10 +11262,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11305,10 +11273,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11316,10 +11284,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11327,10 +11295,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
     </row>
   </sheetData>
@@ -11357,10 +11325,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11368,10 +11336,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11379,10 +11347,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11390,10 +11358,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11401,10 +11369,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11412,10 +11380,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11423,10 +11391,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11434,10 +11402,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
     </row>
   </sheetData>
@@ -11464,10 +11432,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11475,10 +11443,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11486,10 +11454,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11497,10 +11465,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11508,10 +11476,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11519,10 +11487,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11530,10 +11498,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11541,10 +11509,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
@@ -11567,111 +11535,111 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="B2" s="5">
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -11686,18 +11654,18 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -11706,71 +11674,71 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>1439</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>1440</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
     </row>
   </sheetData>
@@ -11823,39 +11791,39 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -12025,7 +11993,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="C2" s="5">
         <v>14</v>
@@ -12048,7 +12016,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="C3" s="5">
         <v>15</v>
@@ -12071,7 +12039,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="C4" s="5">
         <v>16</v>
@@ -12094,7 +12062,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="C5" s="5">
         <v>15</v>
@@ -12117,7 +12085,7 @@
         <v>82</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="C6" s="5">
         <v>16</v>
@@ -12454,98 +12422,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -12553,39 +12521,39 @@
         <v>52</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -12905,8 +12873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8788B72-3334-4E8F-B577-4843D6460926}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12939,7 +12907,7 @@
         <v>147</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>148</v>
@@ -12954,7 +12922,7 @@
         <v>151</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
@@ -12962,7 +12930,7 @@
         <v>152</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>148</v>
@@ -12977,7 +12945,7 @@
         <v>155</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
@@ -12985,7 +12953,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>148</v>
@@ -13000,7 +12968,7 @@
         <v>157</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -13008,7 +12976,7 @@
         <v>158</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>159</v>
@@ -13020,41 +12988,41 @@
         <v>154</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>160</v>
+        <v>1483</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>159</v>
@@ -13063,294 +13031,294 @@
         <v>149</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>150</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>150</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>154</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>154</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>154</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>154</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>15</v>
@@ -13359,435 +13327,435 @@
         <v>159</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>247</v>
+        <v>1484</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>991</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="G22" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="57.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>154</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>157</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="67.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>303</v>
+        <v>1485</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>151</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>9</v>
@@ -13796,113 +13764,113 @@
         <v>159</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>21</v>
@@ -13911,67 +13879,67 @@
         <v>159</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="114.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="137.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="103.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>18</v>
@@ -13980,44 +13948,44 @@
         <v>159</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="103.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="137.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>48</v>
@@ -14026,200 +13994,200 @@
         <v>159</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>150</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>150</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="91.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -14239,66 +14207,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -14324,7 +14292,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -14332,10 +14300,10 @@
         <v>0.308</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14343,252 +14311,252 @@
         <v>0.5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/Fallout_Character_Manager/spreadsheets/all_tables.xlsx
+++ b/Fallout_Character_Manager/spreadsheets/all_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vlado downloads\Others\D&amp;D\Fallout_Bulgaria\Fallout_Character_Manager\Fallout_Character_Manager\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1C431E-5E54-4A77-AD66-D36077C8AE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1526D2-98D5-4E80-80F3-5740D82BC590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="846" firstSheet="6" activeTab="11" xr2:uid="{B429A0AC-8E23-4641-AEE9-0A6E04A084AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="846" activeTab="1" xr2:uid="{B429A0AC-8E23-4641-AEE9-0A6E04A084AF}"/>
   </bookViews>
   <sheets>
     <sheet name="leveling" sheetId="7" r:id="rId1"/>
@@ -6332,7 +6332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70E6738-31A4-4FA0-A9DB-E06CE0CFF90E}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -10066,8 +10066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED280CD-9AB0-4710-8344-A6E7232A8AC6}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
